--- a/Stundenplan.xlsx
+++ b/Stundenplan.xlsx
@@ -51,10 +51,6 @@
     <t>17:30: Türkisch H7</t>
   </si>
   <si>
-    <t>Math. 
-Analysis II        H45.2</t>
-  </si>
-  <si>
     <t>Systemnahe 
 Software              H3</t>
   </si>
@@ -90,6 +86,10 @@
   <si>
     <t>Math. 
 Analysis II   H4/5</t>
+  </si>
+  <si>
+    <t>Math. 
+Analysis II        H22</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,10 +488,10 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -502,12 +502,12 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -516,13 +516,13 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -532,14 +532,14 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -550,16 +550,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
